--- a/HW2/Q2/Q2_Result.xlsx
+++ b/HW2/Q2/Q2_Result.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,76 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+  <si>
+    <t>DataSet</t>
+  </si>
+  <si>
+    <t>DataSetSize</t>
+  </si>
+  <si>
+    <t>data0.1024</t>
+  </si>
+  <si>
+    <t>data0.2048</t>
+  </si>
+  <si>
+    <t>data0.4096</t>
+  </si>
+  <si>
+    <t>data0.8192</t>
+  </si>
+  <si>
+    <t>data0.16384</t>
+  </si>
+  <si>
+    <t>data0.32768</t>
+  </si>
+  <si>
+    <t>data1.1024</t>
+  </si>
+  <si>
+    <t>data1.2048</t>
+  </si>
+  <si>
+    <t>data1.4096</t>
+  </si>
+  <si>
+    <t>data1.8192</t>
+  </si>
+  <si>
+    <t>data1.16384</t>
+  </si>
+  <si>
+    <t>data1.32768</t>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +128,1057 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Result</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>264541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1027236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4183804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16928767</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66641183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>267933908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDD1-437A-8268-D714D5AC75CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="472784992"/>
+        <c:axId val="472789256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="472784992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>DataSet</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472789256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="472789256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Kendall Tau distance</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472784992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{849EFD7B-504E-4F52-8028-AED42C41BCEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1443,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1024</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2048</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4096</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>8192</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>16384</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>32768</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1024</v>
+      </c>
+      <c r="C9">
+        <v>264541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2048</v>
+      </c>
+      <c r="C10">
+        <v>1027236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4096</v>
+      </c>
+      <c r="C11">
+        <v>4183804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>8192</v>
+      </c>
+      <c r="C12">
+        <v>16928767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>16384</v>
+      </c>
+      <c r="C13">
+        <v>66641183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>32768</v>
+      </c>
+      <c r="C14">
+        <v>267933908</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/HW2/Q2/Q2_Result.xlsx
+++ b/HW2/Q2/Q2_Result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>DataSet</t>
   </si>
@@ -67,7 +67,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ratio</t>
+    <t>Run Time(ns)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,6 +149,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Run Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -189,7 +218,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Result</c:v>
+                  <c:v>Run Time(ns)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -252,22 +281,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>264541</c:v>
+                  <c:v>1167183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1027236</c:v>
+                  <c:v>1741291</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4183804</c:v>
+                  <c:v>3401951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16928767</c:v>
+                  <c:v>5024185</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66641183</c:v>
+                  <c:v>7206814</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>267933908</c:v>
+                  <c:v>11946244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -275,7 +304,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EDD1-437A-8268-D714D5AC75CB}"/>
+              <c16:uniqueId val="{00000000-4FA7-4CE9-8E9A-AABBFF09873B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -287,11 +316,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472784992"/>
-        <c:axId val="472789256"/>
+        <c:axId val="463999200"/>
+        <c:axId val="464004448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472784992"/>
+        <c:axId val="463999200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -332,11 +361,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>DataSet</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t> Size</a:t>
+                  <a:t>DataSet Size</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -408,12 +433,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472789256"/>
+        <c:crossAx val="464004448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472789256"/>
+        <c:axId val="464004448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,10 +478,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Kendall Tau distance</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>RunTime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> (ns)</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -528,7 +555,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472784992"/>
+        <c:crossAx val="463999200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1145,22 +1172,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{849EFD7B-504E-4F52-8028-AED42C41BCEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{026AAD51-94B6-42AF-9885-F8EEAC858C9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1474,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1455,6 +1482,7 @@
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="10.4140625" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1542,10 +1570,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1556,6 +1584,9 @@
         <v>1024</v>
       </c>
       <c r="C9">
+        <v>1167183</v>
+      </c>
+      <c r="D9">
         <v>264541</v>
       </c>
     </row>
@@ -1567,6 +1598,9 @@
         <v>2048</v>
       </c>
       <c r="C10">
+        <v>1741291</v>
+      </c>
+      <c r="D10">
         <v>1027236</v>
       </c>
     </row>
@@ -1578,6 +1612,9 @@
         <v>4096</v>
       </c>
       <c r="C11">
+        <v>3401951</v>
+      </c>
+      <c r="D11">
         <v>4183804</v>
       </c>
     </row>
@@ -1589,6 +1626,9 @@
         <v>8192</v>
       </c>
       <c r="C12">
+        <v>5024185</v>
+      </c>
+      <c r="D12">
         <v>16928767</v>
       </c>
     </row>
@@ -1600,6 +1640,9 @@
         <v>16384</v>
       </c>
       <c r="C13">
+        <v>7206814</v>
+      </c>
+      <c r="D13">
         <v>66641183</v>
       </c>
     </row>
@@ -1611,6 +1654,9 @@
         <v>32768</v>
       </c>
       <c r="C14">
+        <v>11946244</v>
+      </c>
+      <c r="D14">
         <v>267933908</v>
       </c>
     </row>
